--- a/contents/동물서바이벌/문서/장비 테이블/동물서바이벌_테이블_스킬 패시브.xlsx
+++ b/contents/동물서바이벌/문서/장비 테이블/동물서바이벌_테이블_스킬 패시브.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\wep_atens\contents\동물서바이벌\문서\장비 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC4590E-BD60-47F9-87FF-371798468D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAB6FF9-06D9-4ECC-B2C7-A95A9BC39CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="4155" windowWidth="23595" windowHeight="15345" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메인" sheetId="11" r:id="rId1"/>
@@ -1883,7 +1883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2238,24 +2238,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2617,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD195E03-E275-43A1-A9D9-F390F0427CFB}">
   <dimension ref="A1:AG118"/>
   <sheetViews>
-    <sheetView topLeftCell="G24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2653,13 +2654,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2685,7 +2686,7 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="131" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="84" t="s">
@@ -2706,15 +2707,15 @@
       <c r="G3" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="130" t="s">
+      <c r="I3" s="129" t="s">
         <v>247</v>
       </c>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="126"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
@@ -2748,7 +2749,7 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="126"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="84" t="s">
         <v>37</v>
       </c>
@@ -2782,7 +2783,7 @@
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="126"/>
+      <c r="A6" s="131"/>
       <c r="B6" s="84" t="s">
         <v>4</v>
       </c>
@@ -2816,7 +2817,7 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" ht="27">
-      <c r="A7" s="126"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="84" t="s">
         <v>5</v>
       </c>
@@ -2850,7 +2851,7 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="131" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="83"/>
@@ -2872,7 +2873,7 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="126"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="85" t="s">
         <v>36</v>
       </c>
@@ -2906,7 +2907,7 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="126"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="85" t="s">
         <v>3</v>
       </c>
@@ -2940,7 +2941,7 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="126"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="85" t="s">
         <v>37</v>
       </c>
@@ -2974,7 +2975,7 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="126"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="85" t="s">
         <v>4</v>
       </c>
@@ -3008,7 +3009,7 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="126"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="85" t="s">
         <v>5</v>
       </c>
@@ -3042,7 +3043,7 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="126" t="s">
+      <c r="A14" s="131" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="83"/>
@@ -3064,7 +3065,7 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="126"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="85" t="s">
         <v>36</v>
       </c>
@@ -3096,7 +3097,7 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="126"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="85" t="s">
         <v>3</v>
       </c>
@@ -3128,7 +3129,7 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="126"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="85" t="s">
         <v>37</v>
       </c>
@@ -3160,7 +3161,7 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="126"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="85" t="s">
         <v>4</v>
       </c>
@@ -3180,10 +3181,10 @@
         <v>161</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="129" t="s">
+      <c r="I18" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="129"/>
+      <c r="J18" s="128"/>
       <c r="K18" s="52" t="s">
         <v>30</v>
       </c>
@@ -3198,7 +3199,7 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" ht="27">
-      <c r="A19" s="126"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="85" t="s">
         <v>5</v>
       </c>
@@ -3238,7 +3239,7 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="131" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="83"/>
@@ -3262,7 +3263,7 @@
       <c r="V20" s="2"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="126"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="85" t="s">
         <v>36</v>
       </c>
@@ -3296,7 +3297,7 @@
       <c r="V21" s="2"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="126"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="85" t="s">
         <v>3</v>
       </c>
@@ -3330,7 +3331,7 @@
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="126"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="85" t="s">
         <v>37</v>
       </c>
@@ -3364,7 +3365,7 @@
       <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="126"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="85" t="s">
         <v>4</v>
       </c>
@@ -3398,7 +3399,7 @@
       <c r="V24" s="2"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="126"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="85" t="s">
         <v>5</v>
       </c>
@@ -3432,7 +3433,7 @@
       <c r="V25" s="2"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="131" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="83"/>
@@ -3456,7 +3457,7 @@
       <c r="V26" s="2"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="126"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="85" t="s">
         <v>36</v>
       </c>
@@ -3490,7 +3491,7 @@
       <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="126"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="85" t="s">
         <v>3</v>
       </c>
@@ -3531,7 +3532,7 @@
       <c r="V28" s="2"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="126"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="85" t="s">
         <v>37</v>
       </c>
@@ -3567,7 +3568,7 @@
       <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="126"/>
+      <c r="A30" s="131"/>
       <c r="B30" s="85" t="s">
         <v>4</v>
       </c>
@@ -3603,7 +3604,7 @@
       <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:23" ht="27">
-      <c r="A31" s="126"/>
+      <c r="A31" s="131"/>
       <c r="B31" s="85" t="s">
         <v>5</v>
       </c>
@@ -3632,7 +3633,7 @@
       <c r="L31" s="32"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="131" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="83"/>
@@ -3651,7 +3652,7 @@
       <c r="L32" s="32"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="126"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="85" t="s">
         <v>36</v>
       </c>
@@ -3680,7 +3681,7 @@
       <c r="L33" s="32"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="126"/>
+      <c r="A34" s="131"/>
       <c r="B34" s="85" t="s">
         <v>3</v>
       </c>
@@ -3709,7 +3710,7 @@
       <c r="L34" s="32"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="126"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="85" t="s">
         <v>37</v>
       </c>
@@ -3738,7 +3739,7 @@
       <c r="L35" s="32"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="126"/>
+      <c r="A36" s="131"/>
       <c r="B36" s="85" t="s">
         <v>4</v>
       </c>
@@ -3767,7 +3768,7 @@
       <c r="L36" s="32"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="126"/>
+      <c r="A37" s="131"/>
       <c r="B37" s="85" t="s">
         <v>5</v>
       </c>
@@ -3803,7 +3804,7 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="126" t="s">
+      <c r="A38" s="131" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="83"/>
@@ -3829,7 +3830,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="126"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="85" t="s">
         <v>36</v>
       </c>
@@ -3865,7 +3866,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="126"/>
+      <c r="A40" s="131"/>
       <c r="B40" s="85" t="s">
         <v>3</v>
       </c>
@@ -3901,7 +3902,7 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="126"/>
+      <c r="A41" s="131"/>
       <c r="B41" s="85" t="s">
         <v>37</v>
       </c>
@@ -3937,7 +3938,7 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="126"/>
+      <c r="A42" s="131"/>
       <c r="B42" s="85" t="s">
         <v>4</v>
       </c>
@@ -3973,7 +3974,7 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="126"/>
+      <c r="A43" s="131"/>
       <c r="B43" s="85" t="s">
         <v>5</v>
       </c>
@@ -4006,7 +4007,7 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="126" t="s">
+      <c r="A44" s="131" t="s">
         <v>39</v>
       </c>
       <c r="B44" s="83"/>
@@ -4029,7 +4030,7 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="126"/>
+      <c r="A45" s="131"/>
       <c r="B45" s="85" t="s">
         <v>36</v>
       </c>
@@ -4062,7 +4063,7 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="126"/>
+      <c r="A46" s="131"/>
       <c r="B46" s="85" t="s">
         <v>3</v>
       </c>
@@ -4095,7 +4096,7 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="126"/>
+      <c r="A47" s="131"/>
       <c r="B47" s="85" t="s">
         <v>37</v>
       </c>
@@ -4128,7 +4129,7 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="126"/>
+      <c r="A48" s="131"/>
       <c r="B48" s="85" t="s">
         <v>4</v>
       </c>
@@ -4161,7 +4162,7 @@
       </c>
     </row>
     <row r="49" spans="1:24" ht="33">
-      <c r="A49" s="126"/>
+      <c r="A49" s="131"/>
       <c r="B49" s="85" t="s">
         <v>5</v>
       </c>
@@ -4263,18 +4264,18 @@
     </row>
     <row r="58" spans="1:24" ht="20.25">
       <c r="D58" s="76"/>
-      <c r="I58" s="127" t="s">
+      <c r="I58" s="126" t="s">
         <v>279</v>
       </c>
-      <c r="J58" s="127"/>
-      <c r="K58" s="127"/>
-      <c r="L58" s="127"/>
-      <c r="N58" s="128" t="s">
+      <c r="J58" s="126"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="126"/>
+      <c r="N58" s="127" t="s">
         <v>320</v>
       </c>
-      <c r="O58" s="128"/>
-      <c r="P58" s="128"/>
-      <c r="Q58" s="128"/>
+      <c r="O58" s="127"/>
+      <c r="P58" s="127"/>
+      <c r="Q58" s="127"/>
     </row>
     <row r="59" spans="1:24">
       <c r="I59" s="42" t="s">
@@ -4810,12 +4811,12 @@
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="5:33" ht="20.25">
-      <c r="I77" s="127" t="s">
+      <c r="I77" s="126" t="s">
         <v>338</v>
       </c>
-      <c r="J77" s="127"/>
-      <c r="K77" s="127"/>
-      <c r="L77" s="127"/>
+      <c r="J77" s="126"/>
+      <c r="K77" s="126"/>
+      <c r="L77" s="126"/>
       <c r="M77" s="1"/>
       <c r="N77" s="117"/>
       <c r="O77" s="117"/>
@@ -5475,12 +5476,12 @@
       <c r="AF97" s="91"/>
     </row>
     <row r="98" spans="9:32" ht="20.25">
-      <c r="I98" s="127" t="s">
+      <c r="I98" s="126" t="s">
         <v>319</v>
       </c>
-      <c r="J98" s="127"/>
-      <c r="K98" s="127"/>
-      <c r="L98" s="127"/>
+      <c r="J98" s="126"/>
+      <c r="K98" s="126"/>
+      <c r="L98" s="126"/>
       <c r="M98" s="92"/>
       <c r="N98" s="92"/>
       <c r="O98" s="92"/>
@@ -5804,13 +5805,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="N58:Q58"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I58:L58"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A3:A7"/>
@@ -5819,6 +5813,13 @@
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="A20:A25"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="N58:Q58"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I58:L58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5847,8 +5848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3462EFC5-EC71-4207-BB56-2CFCCE10914B}">
   <dimension ref="A1:Z67"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -6077,7 +6078,7 @@
       <c r="A4" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="132" t="s">
         <v>343</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -9935,7 +9936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702F69EF-F857-4FC3-8F5A-DC82EE320A84}">
   <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
